--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://silpakorn-my.sharepoint.com/personal/nualsing_a_su_ac_th/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_40EF431F61017D48C26102AB8855B237A12483BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD6BBCC-6065-4CFB-9A7D-1204B4E97253}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_40EF431F7151BE7A0C6102AB8855B237A1248816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12789D3C-C794-4523-A4E1-27AA26A6D481}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="4571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="4582">
   <si>
     <t>price</t>
   </si>
@@ -12772,7 +12772,7 @@
     <t>8850088605602</t>
   </si>
   <si>
-    <t>ข้าวหอมมะลิปลา9ตัว</t>
+    <t>ข้าวหอมมะลิปลา9ตัวถัง</t>
   </si>
   <si>
     <t>เทสโตซอสฮอตชิลลี่</t>
@@ -13730,6 +13730,39 @@
   </si>
   <si>
     <t>8850813120073</t>
+  </si>
+  <si>
+    <t>เอสเขียวขวด10บาท</t>
+  </si>
+  <si>
+    <t>8851952185213</t>
+  </si>
+  <si>
+    <t>ดิวเวอร์รี่เหลือง</t>
+  </si>
+  <si>
+    <t>8850309223615</t>
+  </si>
+  <si>
+    <t>ดาวนีตากผ้าในร่แพค</t>
+  </si>
+  <si>
+    <t>4987176130761</t>
+  </si>
+  <si>
+    <t>เลย์ร็อคแผ่นหยักMAXบาร์บีคิว44กรัม</t>
+  </si>
+  <si>
+    <t>8850718820719</t>
+  </si>
+  <si>
+    <t>ชีโตส ทวิวต์</t>
+  </si>
+  <si>
+    <t>8850718822584</t>
+  </si>
+  <si>
+    <t>ข้าวหอมมะลิปลา9ตัวท่อน</t>
   </si>
   <si>
     <t>name</t>
@@ -14109,17 +14142,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2433"/>
+  <dimension ref="A1:C2439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="2" width="48.625" customWidth="1"/>
-    <col min="3" max="3" width="13.1875" customWidth="1"/>
+    <col min="1" max="1" width="28.8125" customWidth="1"/>
+    <col min="2" max="2" width="41.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
@@ -14127,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4570</v>
+        <v>4581</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -14778,7 +14810,7 @@
         <v>117</v>
       </c>
       <c r="C61">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
@@ -14786,7 +14818,7 @@
         <v>118</v>
       </c>
       <c r="C62">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
@@ -24322,7 +24354,7 @@
         <v>1826</v>
       </c>
       <c r="C942">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.5">
@@ -25684,7 +25716,7 @@
         <v>2058</v>
       </c>
       <c r="C1074">
-        <v>1490</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.5">
@@ -30922,7 +30954,7 @@
         <v>2949</v>
       </c>
       <c r="C1587">
-        <v>1080</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1588" spans="1:3" x14ac:dyDescent="0.5">
@@ -36059,7 +36091,7 @@
         <v>3858</v>
       </c>
       <c r="C2069">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2070" spans="1:3" x14ac:dyDescent="0.5">
@@ -40015,10 +40047,73 @@
         <v>49</v>
       </c>
     </row>
+    <row r="2434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2434" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C2434">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2435" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C2435">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2436" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C2436">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2437" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C2437">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2438" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C2438">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B2439" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C2439">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:C2433" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:C2439" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>